--- a/assets/initConfigFile/preference.xlsx
+++ b/assets/initConfigFile/preference.xlsx
@@ -1,38 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\丰泽\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="5460" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="14700" yWindow="2760" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="250">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>名站推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,7 +200,7 @@
     <t>http://china.nba.com</t>
   </si>
   <si>
-    <t>linyuan</t>
+    <t>dada1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,7 +208,654 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名站推荐</t>
+    <t>综合资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门户导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.taobao.com/</t>
+  </si>
+  <si>
+    <t>淘宝</t>
+  </si>
+  <si>
+    <t>http://jx.tmall.com/</t>
+  </si>
+  <si>
+    <t>天猫</t>
+  </si>
+  <si>
+    <t>http://m.jd.com/</t>
+  </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>http://m.vip.com/</t>
+  </si>
+  <si>
+    <t>唯品会</t>
+  </si>
+  <si>
+    <t>新浪新闻</t>
+  </si>
+  <si>
+    <t>http://news.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>http://news.qq.com/</t>
+  </si>
+  <si>
+    <t>网易新闻</t>
+  </si>
+  <si>
+    <t>http://news.sohu.com/</t>
+  </si>
+  <si>
+    <t>搜狐新闻</t>
+  </si>
+  <si>
+    <t>凤凰网</t>
+  </si>
+  <si>
+    <t>http://www.diyifanwen.com/</t>
+  </si>
+  <si>
+    <t>第一范文网</t>
+  </si>
+  <si>
+    <t>http://www.lookmw.cn/</t>
+  </si>
+  <si>
+    <t>美文网</t>
+  </si>
+  <si>
+    <t>http://www.vipyaya.com/</t>
+  </si>
+  <si>
+    <t>丫丫语录</t>
+  </si>
+  <si>
+    <t>http://www.sanwen8.cn/</t>
+  </si>
+  <si>
+    <t>散文吧</t>
+  </si>
+  <si>
+    <t>http://web.17173.com/</t>
+  </si>
+  <si>
+    <t>17173网页游戏</t>
+  </si>
+  <si>
+    <t>http://web.duowan.com/</t>
+  </si>
+  <si>
+    <t>多玩网页游戏</t>
+  </si>
+  <si>
+    <t>http://tg.777wyx.com/?uid=508642</t>
+  </si>
+  <si>
+    <t>37wan游戏</t>
+  </si>
+  <si>
+    <t>http://game.qq.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 腾讯游戏</t>
+  </si>
+  <si>
+    <t>http://sports.qq.com/</t>
+  </si>
+  <si>
+    <t>腾讯体育</t>
+  </si>
+  <si>
+    <t>http://sports.163.com/</t>
+  </si>
+  <si>
+    <t>网易体育</t>
+  </si>
+  <si>
+    <t>http://sports.sohu.com/</t>
+  </si>
+  <si>
+    <t>搜狐体育</t>
+  </si>
+  <si>
+    <t>http://sports.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>新浪体育</t>
+  </si>
+  <si>
+    <t>http://www.youku.com/</t>
+  </si>
+  <si>
+    <t>优酷网</t>
+  </si>
+  <si>
+    <t>http://tv.sohu.com/hdtv/</t>
+  </si>
+  <si>
+    <t>搜狐高清</t>
+  </si>
+  <si>
+    <t>http://www.iqiyi.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+  </si>
+  <si>
+    <t>http://www.tudou.com/</t>
+  </si>
+  <si>
+    <t>土豆网</t>
+  </si>
+  <si>
+    <t>http://www.bitauto.com/</t>
+  </si>
+  <si>
+    <t>易车网</t>
+  </si>
+  <si>
+    <t>http://www.autohome.com.cn/</t>
+  </si>
+  <si>
+    <t>汽车之家</t>
+  </si>
+  <si>
+    <t>http://www.cars.com.cn/</t>
+  </si>
+  <si>
+    <t>车盟网</t>
+  </si>
+  <si>
+    <t>http://www.xcar.com.cn/</t>
+  </si>
+  <si>
+    <t>爱卡汽车网</t>
+  </si>
+  <si>
+    <t>http://www.tiexue.net/</t>
+  </si>
+  <si>
+    <t>铁血军事</t>
+  </si>
+  <si>
+    <t>http://junshi.xilu.com/</t>
+  </si>
+  <si>
+    <t>西陆军事</t>
+  </si>
+  <si>
+    <t>http://mil.news.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>新浪军事</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/mil/</t>
+  </si>
+  <si>
+    <t>新华网军事</t>
+  </si>
+  <si>
+    <t>http://www.cas.ac.cn/</t>
+  </si>
+  <si>
+    <t>中国科学院</t>
+  </si>
+  <si>
+    <t>http://www.cstnet.net.cn/</t>
+  </si>
+  <si>
+    <t>中国科技网</t>
+  </si>
+  <si>
+    <t>http://tech.china.com/</t>
+  </si>
+  <si>
+    <t>中华网科技</t>
+  </si>
+  <si>
+    <t>http://www.huxiu.com/</t>
+  </si>
+  <si>
+    <t>虎嗅网</t>
+  </si>
+  <si>
+    <t>http://www.qunar.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 去哪儿</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 携程旅行网</t>
+  </si>
+  <si>
+    <t>http://www.17u.cn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 同程网</t>
+  </si>
+  <si>
+    <t>http://www.elong.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 艺龙旅行网</t>
+  </si>
+  <si>
+    <t>http://www.baihe.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 百合网</t>
+  </si>
+  <si>
+    <t>http://www.jiayuan.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 世纪佳缘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 珍爱网</t>
+  </si>
+  <si>
+    <t>http://yuehui.163.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 同城约会</t>
+  </si>
+  <si>
+    <t>http://www.stockcity.cn/</t>
+  </si>
+  <si>
+    <t>股城网</t>
+  </si>
+  <si>
+    <t>http://finance.ifeng.com/</t>
+  </si>
+  <si>
+    <t>搜狐财经</t>
+  </si>
+  <si>
+    <t>http://www.eastmoney.com/</t>
+  </si>
+  <si>
+    <t>东方财富网</t>
+  </si>
+  <si>
+    <t>http://finance.sina.com.cn/</t>
+  </si>
+  <si>
+    <t>新浪财经</t>
+  </si>
+  <si>
+    <t>http://gucn.com/</t>
+  </si>
+  <si>
+    <t>中华古玩网</t>
+  </si>
+  <si>
+    <t>http://mycollect.net/</t>
+  </si>
+  <si>
+    <t>华夏收藏网</t>
+  </si>
+  <si>
+    <t>http://gg-art.com/</t>
+  </si>
+  <si>
+    <t>中华博物</t>
+  </si>
+  <si>
+    <t>http://sssc.cn/</t>
+  </si>
+  <si>
+    <t>盛世收藏</t>
+  </si>
+  <si>
+    <t>39健康网</t>
+  </si>
+  <si>
+    <t>http://www.39.net/</t>
+  </si>
+  <si>
+    <t>http://www.91.cn/</t>
+  </si>
+  <si>
+    <t>就医网</t>
+  </si>
+  <si>
+    <t>http://www.haodf.com/</t>
+  </si>
+  <si>
+    <t>好大夫</t>
+  </si>
+  <si>
+    <t>http://health.ifeng.com/</t>
+  </si>
+  <si>
+    <t>凤凰健康</t>
+  </si>
+  <si>
+    <t>http://www.meishij.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美食杰</t>
+  </si>
+  <si>
+    <t>http://www.douguo.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豆果网</t>
+  </si>
+  <si>
+    <t>http://www.haodou.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 好豆网</t>
+  </si>
+  <si>
+    <t>http://www.dianping.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大众点评网</t>
+  </si>
+  <si>
+    <t>http://www.cnfol.com/</t>
+  </si>
+  <si>
+    <t>中金在线</t>
+  </si>
+  <si>
+    <t>http://finance.cqnews.net/</t>
+  </si>
+  <si>
+    <t>华龙理财</t>
+  </si>
+  <si>
+    <t>http://www.yicai.com/</t>
+  </si>
+  <si>
+    <t>一财网</t>
+  </si>
+  <si>
+    <t>http://www.cfi.cn/</t>
+  </si>
+  <si>
+    <t>中财网</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.youtube.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>http://twitter.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.linkedin.com/</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/app/wei-xin/id414478124?mt=8</t>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/app/qq/id444934666?mt=8</t>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/app/zhi-fu-bao-rang-sheng-huo/id333206289?mt=8</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/app/ai-qi-yi-wu-jian-dao-quan/id393765873?mt=8</t>
+  </si>
+  <si>
+    <t>爱奇艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/app/wei-bo/id350962117?mt=8</t>
+  </si>
+  <si>
+    <t>新浪微博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/app/bai-du-tu-zhuan-ye-shou-ji/id452186370?mt=8</t>
+  </si>
+  <si>
+    <t>百度地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/app/mo-ji-tian-qi-guan-xin-tian/id434209233?mt=8</t>
+  </si>
+  <si>
+    <t>墨迹天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://itunes.apple.com/cn/app/mei-tuan-chi-he-wan-le-quan/id423084029?mt=8</t>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hao123.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.2345.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2345网址导航</t>
+  </si>
+  <si>
+    <t>hao123导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hao.360.cn</t>
+  </si>
+  <si>
+    <t>http://www.114la.com</t>
+  </si>
+  <si>
+    <t>114啦</t>
+  </si>
+  <si>
+    <t>搜狗网址导航</t>
+  </si>
+  <si>
+    <t>https://123.sogou.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度网址大全</t>
+  </si>
+  <si>
+    <t>http://site.baidu.com</t>
+  </si>
+  <si>
+    <t>360导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://top.chinaz.com/site_hao.qq.com.hhttps://hao.qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ导航</t>
+  </si>
+  <si>
+    <t>http://www.uc123.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC导航</t>
+  </si>
+  <si>
+    <t>http://www.58q8.com</t>
+  </si>
+  <si>
+    <t>58q8导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +892,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -255,7 +900,15 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -277,15 +930,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,10 +1014,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="24">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,7 +1310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,61 +1318,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M96" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="43" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -639,24 +1381,24 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="43" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -665,24 +1407,24 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="43" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -691,24 +1433,24 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="43" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -717,24 +1459,24 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="43" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -743,24 +1485,24 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="43" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -769,24 +1511,24 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="43" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -795,24 +1537,24 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="43" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
@@ -821,24 +1563,24 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="43" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
         <v>9</v>
@@ -847,24 +1589,24 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="43" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -873,24 +1615,24 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="43" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1">
         <v>11</v>
@@ -899,24 +1641,24 @@
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="43" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
         <v>12</v>
@@ -925,24 +1667,24 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="43" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1">
         <v>13</v>
@@ -951,24 +1693,24 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="43" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
@@ -977,24 +1719,24 @@
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="43" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
@@ -1003,24 +1745,24 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="43" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
@@ -1029,24 +1771,24 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="43" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1">
         <v>17</v>
@@ -1055,24 +1797,24 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="43" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1">
         <v>18</v>
@@ -1081,24 +1823,24 @@
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="43" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1">
         <v>19</v>
@@ -1107,24 +1849,24 @@
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="43" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E21" s="1">
         <v>20</v>
@@ -1133,16 +1875,2226 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="43" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="43" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="43" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="43" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="43" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="43" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="43" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="43" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="43" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="43" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="43" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="43" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="43" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="43" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="43" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="43" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="43" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="43" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="43" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="43" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="43" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="43" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="43" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="43" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="43" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="43" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="43" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="43" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="43" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="43" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="43" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="43" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="43" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="43" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="43" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="43" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="43" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="43" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="43" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="43" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="43" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="43" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="43" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="43" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="43" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="43" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="43" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="43" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="43" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="43" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="43" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="43" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="43" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="43" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="43" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="43" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="43" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="43" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="43" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="43" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="43" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="43" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="43" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="43" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="43" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="43" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="43" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H106" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/initConfigFile/preference.xlsx
+++ b/assets/initConfigFile/preference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="2760" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="15240" yWindow="3960" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1321,7 +1321,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M96" sqref="A1:XFD1048576"/>
+      <selection activeCell="E98" sqref="E98:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
@@ -1999,7 +1999,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>80</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>82</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>85</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>87</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>89</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>91</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>93</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>95</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>97</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>99</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>101</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>103</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>105</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>107</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>109</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>111</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>113</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>115</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2519,7 +2519,7 @@
         <v>117</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>119</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>121</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>123</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>125</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>127</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>129</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>131</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>133</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>135</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>137</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>139</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>141</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>35</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>144</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>146</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>148</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>150</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>44</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>153</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>155</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -3065,7 +3065,7 @@
         <v>157</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>159</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>161</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -3143,7 +3143,7 @@
         <v>163</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>165</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>167</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>169</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>172</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3273,7 +3273,7 @@
         <v>173</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>175</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>177</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>179</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>181</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>183</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>185</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>187</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>189</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>191</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>193</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>195</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>197</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>199</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -3637,7 +3637,7 @@
         <v>201</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>203</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>205</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>207</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>209</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>211</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>213</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>215</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>217</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>219</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>220</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>227</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>229</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>223</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>224</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>231</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>233</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>235</v>
       </c>
       <c r="E106" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>

--- a/assets/initConfigFile/preference.xlsx
+++ b/assets/initConfigFile/preference.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\丰泽\repo\even-more-passport\assets\initConfigFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="3960" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="15240" yWindow="3960" windowWidth="25605" windowHeight="16065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1017,30 +1022,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="24">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1310,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1320,22 +1325,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98:E106"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43" customHeight="1">
+    <row r="1" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43" customHeight="1">
+    <row r="2" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43" customHeight="1">
+    <row r="3" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43" customHeight="1">
+    <row r="4" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43" customHeight="1">
+    <row r="5" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43" customHeight="1">
+    <row r="6" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43" customHeight="1">
+    <row r="7" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1517,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43" customHeight="1">
+    <row r="8" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43" customHeight="1">
+    <row r="9" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1569,7 +1574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43" customHeight="1">
+    <row r="10" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43" customHeight="1">
+    <row r="11" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1621,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43" customHeight="1">
+    <row r="12" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1647,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43" customHeight="1">
+    <row r="13" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43" customHeight="1">
+    <row r="14" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43" customHeight="1">
+    <row r="15" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1725,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43" customHeight="1">
+    <row r="16" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="43" customHeight="1">
+    <row r="17" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1777,7 +1782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43" customHeight="1">
+    <row r="18" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1803,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="43" customHeight="1">
+    <row r="19" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1829,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43" customHeight="1">
+    <row r="20" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1855,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43" customHeight="1">
+    <row r="21" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="43" customHeight="1">
+    <row r="22" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43" customHeight="1">
+    <row r="23" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="43" customHeight="1">
+    <row r="24" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43" customHeight="1">
+    <row r="25" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1985,7 +1990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43" customHeight="1">
+    <row r="26" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>78</v>
@@ -2011,7 +2016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43" customHeight="1">
+    <row r="27" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>81</v>
@@ -2037,7 +2042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43" customHeight="1">
+    <row r="28" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>83</v>
@@ -2063,7 +2068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43" customHeight="1">
+    <row r="29" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>84</v>
@@ -2089,7 +2094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="43" customHeight="1">
+    <row r="30" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2106,7 +2111,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>86</v>
@@ -2115,7 +2120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="43" customHeight="1">
+    <row r="31" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -2132,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>88</v>
@@ -2141,7 +2146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="43" customHeight="1">
+    <row r="32" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>90</v>
@@ -2167,7 +2172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="43" customHeight="1">
+    <row r="33" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2184,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>92</v>
@@ -2193,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="43" customHeight="1">
+    <row r="34" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>94</v>
@@ -2219,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="43" customHeight="1">
+    <row r="35" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>96</v>
@@ -2245,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="43" customHeight="1">
+    <row r="36" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2262,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>98</v>
@@ -2271,7 +2276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="43" customHeight="1">
+    <row r="37" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>100</v>
@@ -2297,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="43" customHeight="1">
+    <row r="38" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>102</v>
@@ -2323,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="43" customHeight="1">
+    <row r="39" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -2340,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>104</v>
@@ -2349,7 +2354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43" customHeight="1">
+    <row r="40" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>106</v>
@@ -2375,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="43" customHeight="1">
+    <row r="41" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>108</v>
@@ -2401,7 +2406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="43" customHeight="1">
+    <row r="42" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2418,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>110</v>
@@ -2427,7 +2432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43" customHeight="1">
+    <row r="43" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2444,7 +2449,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>112</v>
@@ -2453,7 +2458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43" customHeight="1">
+    <row r="44" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>114</v>
@@ -2479,7 +2484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43" customHeight="1">
+    <row r="45" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -2496,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>116</v>
@@ -2505,7 +2510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="43" customHeight="1">
+    <row r="46" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>118</v>
@@ -2531,7 +2536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="43" customHeight="1">
+    <row r="47" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>120</v>
@@ -2557,7 +2562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="43" customHeight="1">
+    <row r="48" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2574,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>122</v>
@@ -2583,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="43" customHeight="1">
+    <row r="49" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2600,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>124</v>
@@ -2609,7 +2614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="43" customHeight="1">
+    <row r="50" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>126</v>
@@ -2635,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="43" customHeight="1">
+    <row r="51" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2652,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>128</v>
@@ -2661,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="43" customHeight="1">
+    <row r="52" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -2678,7 +2683,7 @@
         <v>7</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>130</v>
@@ -2687,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="43" customHeight="1">
+    <row r="53" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -2704,7 +2709,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>132</v>
@@ -2713,7 +2718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="43" customHeight="1">
+    <row r="54" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>49</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>134</v>
@@ -2739,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="43" customHeight="1">
+    <row r="55" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
@@ -2756,7 +2761,7 @@
         <v>8</v>
       </c>
       <c r="F55" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>136</v>
@@ -2765,7 +2770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="43" customHeight="1">
+    <row r="56" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2782,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>138</v>
@@ -2791,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="43" customHeight="1">
+    <row r="57" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>140</v>
@@ -2817,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="43" customHeight="1">
+    <row r="58" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>9</v>
       </c>
       <c r="F58" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>142</v>
@@ -2843,7 +2848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="43" customHeight="1">
+    <row r="59" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
@@ -2860,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>143</v>
@@ -2869,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="43" customHeight="1">
+    <row r="60" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="F60" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>145</v>
@@ -2895,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="43" customHeight="1">
+    <row r="61" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -2912,7 +2917,7 @@
         <v>9</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>147</v>
@@ -2921,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="43" customHeight="1">
+    <row r="62" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -2938,7 +2943,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>149</v>
@@ -2947,7 +2952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43" customHeight="1">
+    <row r="63" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>151</v>
@@ -2973,7 +2978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43" customHeight="1">
+    <row r="64" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>49</v>
       </c>
@@ -2990,7 +2995,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>152</v>
@@ -2999,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="43" customHeight="1">
+    <row r="65" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>154</v>
@@ -3025,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="43" customHeight="1">
+    <row r="66" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>49</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43" customHeight="1">
+    <row r="67" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>49</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>11</v>
       </c>
       <c r="F67" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>158</v>
@@ -3077,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43" customHeight="1">
+    <row r="68" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
@@ -3094,7 +3099,7 @@
         <v>11</v>
       </c>
       <c r="F68" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>160</v>
@@ -3103,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="43" customHeight="1">
+    <row r="69" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>49</v>
       </c>
@@ -3120,7 +3125,7 @@
         <v>11</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>162</v>
@@ -3129,7 +3134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="43" customHeight="1">
+    <row r="70" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>164</v>
@@ -3155,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="43" customHeight="1">
+    <row r="71" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>12</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>166</v>
@@ -3181,7 +3186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="43" customHeight="1">
+    <row r="72" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>49</v>
       </c>
@@ -3198,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>168</v>
@@ -3207,7 +3212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="43" customHeight="1">
+    <row r="73" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>49</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>170</v>
@@ -3233,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43" customHeight="1">
+    <row r="74" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>49</v>
       </c>
@@ -3250,7 +3255,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>171</v>
@@ -3259,7 +3264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="43" customHeight="1">
+    <row r="75" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>49</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>174</v>
@@ -3285,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="43" customHeight="1">
+    <row r="76" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>49</v>
       </c>
@@ -3302,7 +3307,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>176</v>
@@ -3311,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="43" customHeight="1">
+    <row r="77" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>49</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>13</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>178</v>
@@ -3337,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="43" customHeight="1">
+    <row r="78" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>49</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>180</v>
@@ -3363,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="43" customHeight="1">
+    <row r="79" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>49</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>182</v>
@@ -3389,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43" customHeight="1">
+    <row r="80" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>49</v>
       </c>
@@ -3406,7 +3411,7 @@
         <v>14</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>184</v>
@@ -3415,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="43" customHeight="1">
+    <row r="81" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>49</v>
       </c>
@@ -3432,7 +3437,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>186</v>
@@ -3441,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="43" customHeight="1">
+    <row r="82" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>49</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>15</v>
       </c>
       <c r="F82" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>188</v>
@@ -3467,7 +3472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="43" customHeight="1">
+    <row r="83" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>49</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>15</v>
       </c>
       <c r="F83" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>190</v>
@@ -3493,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="43" customHeight="1">
+    <row r="84" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>49</v>
       </c>
@@ -3510,7 +3515,7 @@
         <v>15</v>
       </c>
       <c r="F84" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>192</v>
@@ -3519,7 +3524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="43" customHeight="1">
+    <row r="85" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>15</v>
       </c>
       <c r="F85" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>194</v>
@@ -3545,7 +3550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="43" customHeight="1">
+    <row r="86" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>49</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>16</v>
       </c>
       <c r="F86" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>196</v>
@@ -3571,7 +3576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="43" customHeight="1">
+    <row r="87" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>49</v>
       </c>
@@ -3588,7 +3593,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>198</v>
@@ -3597,7 +3602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="43" customHeight="1">
+    <row r="88" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>49</v>
       </c>
@@ -3614,7 +3619,7 @@
         <v>16</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>200</v>
@@ -3623,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="43" customHeight="1">
+    <row r="89" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>49</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>16</v>
       </c>
       <c r="F89" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>202</v>
@@ -3649,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="43" customHeight="1">
+    <row r="90" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,7 +3671,7 @@
         <v>17</v>
       </c>
       <c r="F90" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>204</v>
@@ -3675,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="43" customHeight="1">
+    <row r="91" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>49</v>
       </c>
@@ -3692,7 +3697,7 @@
         <v>17</v>
       </c>
       <c r="F91" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>206</v>
@@ -3701,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="43" customHeight="1">
+    <row r="92" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>49</v>
       </c>
@@ -3718,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="F92" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>208</v>
@@ -3727,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="43" customHeight="1">
+    <row r="93" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>49</v>
       </c>
@@ -3744,7 +3749,7 @@
         <v>17</v>
       </c>
       <c r="F93" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>210</v>
@@ -3753,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="43" customHeight="1">
+    <row r="94" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>49</v>
       </c>
@@ -3770,7 +3775,7 @@
         <v>18</v>
       </c>
       <c r="F94" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>212</v>
@@ -3779,7 +3784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="43" customHeight="1">
+    <row r="95" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>18</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>214</v>
@@ -3805,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="43" customHeight="1">
+    <row r="96" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>49</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>18</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>216</v>
@@ -3831,7 +3836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="43" customHeight="1">
+    <row r="97" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
@@ -3848,7 +3853,7 @@
         <v>18</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>218</v>
@@ -3857,7 +3862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="43" customHeight="1">
+    <row r="98" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>49</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>19</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>222</v>
@@ -3883,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="43" customHeight="1">
+    <row r="99" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>49</v>
       </c>
@@ -3900,7 +3905,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>221</v>
@@ -3909,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="43" customHeight="1">
+    <row r="100" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,7 +3931,7 @@
         <v>19</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>226</v>
@@ -3935,7 +3940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="43" customHeight="1">
+    <row r="101" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>49</v>
       </c>
@@ -3952,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="F101" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>228</v>
@@ -3961,7 +3966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="43" customHeight="1">
+    <row r="102" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>49</v>
       </c>
@@ -3978,7 +3983,7 @@
         <v>19</v>
       </c>
       <c r="F102" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>230</v>
@@ -3987,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="43" customHeight="1">
+    <row r="103" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>49</v>
       </c>
@@ -4004,7 +4009,7 @@
         <v>19</v>
       </c>
       <c r="F103" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>225</v>
@@ -4013,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="43" customHeight="1">
+    <row r="104" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>49</v>
       </c>
@@ -4030,7 +4035,7 @@
         <v>19</v>
       </c>
       <c r="F104" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>232</v>
@@ -4039,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="43" customHeight="1">
+    <row r="105" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,7 +4061,7 @@
         <v>19</v>
       </c>
       <c r="F105" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>234</v>
@@ -4065,7 +4070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="43" customHeight="1">
+    <row r="106" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>49</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>19</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>236</v>
@@ -4094,7 +4099,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/initConfigFile/preference.xlsx
+++ b/assets/initConfigFile/preference.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\丰泽\repo\even-more-passport\assets\initConfigFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="3960" windowWidth="25605" windowHeight="16065"/>
+    <workbookView xWindow="9480" yWindow="3580" windowWidth="28580" windowHeight="19900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -868,7 +863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +912,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -935,7 +938,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,8 +1011,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,32 +1035,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="24">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="28">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1325,22 +1347,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="43" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="43" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1380,10 +1402,10 @@
         <v>30</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -1392,7 +1414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="43" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1406,10 +1428,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1418,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="43" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1432,10 +1454,10 @@
         <v>29</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -1444,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="43" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1458,10 +1480,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1470,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="43" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1484,10 +1506,10 @@
         <v>33</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
@@ -1496,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="43" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1510,10 +1532,10 @@
         <v>34</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -1522,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="43" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1536,10 +1558,10 @@
         <v>35</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
@@ -1548,7 +1570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="43" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1562,10 +1584,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -1574,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="43" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1588,10 +1610,10 @@
         <v>37</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
@@ -1600,7 +1622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="43" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1614,10 +1636,10 @@
         <v>38</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>24</v>
@@ -1626,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="43" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1640,7 +1662,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1652,7 +1674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="43" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1666,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1678,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="43" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1692,7 +1714,7 @@
         <v>41</v>
       </c>
       <c r="E14" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -1704,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="43" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1730,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="43" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1744,7 +1766,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1756,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="43" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1770,10 +1792,10 @@
         <v>44</v>
       </c>
       <c r="E17" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>15</v>
@@ -1782,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="43" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1796,10 +1818,10 @@
         <v>45</v>
       </c>
       <c r="E18" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
@@ -1808,7 +1830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="43" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1822,10 +1844,10 @@
         <v>46</v>
       </c>
       <c r="E19" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>17</v>
@@ -1834,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="43" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1848,10 +1870,10 @@
         <v>47</v>
       </c>
       <c r="E20" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>18</v>
@@ -1860,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="43" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1874,10 +1896,10 @@
         <v>48</v>
       </c>
       <c r="E21" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>28</v>
@@ -1886,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1912,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="43" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1926,7 +1948,7 @@
         <v>72</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1938,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="43" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1952,7 +1974,7 @@
         <v>74</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1964,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="43" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1978,7 +2000,7 @@
         <v>76</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1990,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="43" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2004,7 +2026,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2016,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="43" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="43" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2056,7 +2078,7 @@
         <v>82</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -2068,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="43" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -2082,7 +2104,7 @@
         <v>31</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -2094,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="43" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2107,8 +2129,8 @@
       <c r="D30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="1">
-        <v>2</v>
+      <c r="E30" s="4">
+        <v>0</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
@@ -2120,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="43" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,8 +2155,8 @@
       <c r="D31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="1">
-        <v>2</v>
+      <c r="E31" s="4">
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
@@ -2146,7 +2168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -2159,7 +2181,7 @@
       <c r="D32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>2</v>
       </c>
       <c r="F32" s="1">
@@ -2172,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="43" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2185,8 +2207,8 @@
       <c r="D33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="1">
-        <v>2</v>
+      <c r="E33" s="4">
+        <v>3</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
@@ -2198,7 +2220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="43" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2211,8 +2233,8 @@
       <c r="D34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="1">
-        <v>3</v>
+      <c r="E34" s="4">
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
@@ -2224,7 +2246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="43" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2237,8 +2259,8 @@
       <c r="D35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="1">
-        <v>3</v>
+      <c r="E35" s="4">
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
@@ -2250,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="43" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -2263,8 +2285,8 @@
       <c r="D36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="1">
-        <v>3</v>
+      <c r="E36" s="4">
+        <v>2</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
@@ -2276,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="43" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2311,7 @@
       <c r="D37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="4">
         <v>3</v>
       </c>
       <c r="F37" s="1">
@@ -2302,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="43" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -2315,8 +2337,8 @@
       <c r="D38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="1">
-        <v>4</v>
+      <c r="E38" s="4">
+        <v>0</v>
       </c>
       <c r="F38" s="1">
         <v>4</v>
@@ -2328,7 +2350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="43" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -2341,8 +2363,8 @@
       <c r="D39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="1">
-        <v>4</v>
+      <c r="E39" s="4">
+        <v>1</v>
       </c>
       <c r="F39" s="1">
         <v>4</v>
@@ -2354,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="43" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -2367,8 +2389,8 @@
       <c r="D40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="1">
-        <v>4</v>
+      <c r="E40" s="4">
+        <v>2</v>
       </c>
       <c r="F40" s="1">
         <v>4</v>
@@ -2380,7 +2402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="43" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2393,8 +2415,8 @@
       <c r="D41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="1">
-        <v>4</v>
+      <c r="E41" s="4">
+        <v>3</v>
       </c>
       <c r="F41" s="1">
         <v>4</v>
@@ -2406,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="43" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2419,8 +2441,8 @@
       <c r="D42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="1">
-        <v>5</v>
+      <c r="E42" s="4">
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>5</v>
@@ -2432,7 +2454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="43" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2445,8 +2467,8 @@
       <c r="D43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="1">
-        <v>5</v>
+      <c r="E43" s="4">
+        <v>1</v>
       </c>
       <c r="F43" s="1">
         <v>5</v>
@@ -2458,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="43" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2471,8 +2493,8 @@
       <c r="D44" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="1">
-        <v>5</v>
+      <c r="E44" s="4">
+        <v>2</v>
       </c>
       <c r="F44" s="1">
         <v>5</v>
@@ -2484,7 +2506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="43" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -2497,8 +2519,8 @@
       <c r="D45" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="1">
-        <v>5</v>
+      <c r="E45" s="4">
+        <v>3</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2510,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="43" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -2523,8 +2545,8 @@
       <c r="D46" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="1">
-        <v>6</v>
+      <c r="E46" s="4">
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>6</v>
@@ -2536,7 +2558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="43" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -2549,8 +2571,8 @@
       <c r="D47" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="1">
-        <v>6</v>
+      <c r="E47" s="4">
+        <v>1</v>
       </c>
       <c r="F47" s="1">
         <v>6</v>
@@ -2562,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="43" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2575,8 +2597,8 @@
       <c r="D48" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="1">
-        <v>6</v>
+      <c r="E48" s="4">
+        <v>2</v>
       </c>
       <c r="F48" s="1">
         <v>6</v>
@@ -2588,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="43" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -2601,8 +2623,8 @@
       <c r="D49" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="1">
-        <v>6</v>
+      <c r="E49" s="4">
+        <v>3</v>
       </c>
       <c r="F49" s="1">
         <v>6</v>
@@ -2614,7 +2636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="43" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2627,8 +2649,8 @@
       <c r="D50" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="1">
-        <v>7</v>
+      <c r="E50" s="4">
+        <v>0</v>
       </c>
       <c r="F50" s="1">
         <v>7</v>
@@ -2640,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="43" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -2653,8 +2675,8 @@
       <c r="D51" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="1">
-        <v>7</v>
+      <c r="E51" s="4">
+        <v>1</v>
       </c>
       <c r="F51" s="1">
         <v>7</v>
@@ -2666,7 +2688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="43" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -2679,8 +2701,8 @@
       <c r="D52" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="1">
-        <v>7</v>
+      <c r="E52" s="4">
+        <v>2</v>
       </c>
       <c r="F52" s="1">
         <v>7</v>
@@ -2692,7 +2714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="43" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -2705,8 +2727,8 @@
       <c r="D53" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="1">
-        <v>7</v>
+      <c r="E53" s="4">
+        <v>3</v>
       </c>
       <c r="F53" s="1">
         <v>7</v>
@@ -2718,7 +2740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="43" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>49</v>
       </c>
@@ -2731,8 +2753,8 @@
       <c r="D54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="1">
-        <v>8</v>
+      <c r="E54" s="4">
+        <v>0</v>
       </c>
       <c r="F54" s="1">
         <v>8</v>
@@ -2744,7 +2766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="43" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>49</v>
       </c>
@@ -2757,8 +2779,8 @@
       <c r="D55" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="1">
-        <v>8</v>
+      <c r="E55" s="4">
+        <v>1</v>
       </c>
       <c r="F55" s="1">
         <v>8</v>
@@ -2770,7 +2792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="43" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2783,8 +2805,8 @@
       <c r="D56" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="1">
-        <v>8</v>
+      <c r="E56" s="4">
+        <v>2</v>
       </c>
       <c r="F56" s="1">
         <v>8</v>
@@ -2796,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="43" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2809,8 +2831,8 @@
       <c r="D57" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="1">
-        <v>8</v>
+      <c r="E57" s="4">
+        <v>3</v>
       </c>
       <c r="F57" s="1">
         <v>8</v>
@@ -2822,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="43" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -2835,8 +2857,8 @@
       <c r="D58" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E58" s="1">
-        <v>9</v>
+      <c r="E58" s="4">
+        <v>0</v>
       </c>
       <c r="F58" s="1">
         <v>9</v>
@@ -2848,7 +2870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="43" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
@@ -2861,8 +2883,8 @@
       <c r="D59" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="1">
-        <v>9</v>
+      <c r="E59" s="4">
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>9</v>
@@ -2874,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="43" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
@@ -2887,8 +2909,8 @@
       <c r="D60" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E60" s="1">
-        <v>9</v>
+      <c r="E60" s="4">
+        <v>2</v>
       </c>
       <c r="F60" s="1">
         <v>9</v>
@@ -2900,7 +2922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="43" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -2913,8 +2935,8 @@
       <c r="D61" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="1">
-        <v>9</v>
+      <c r="E61" s="4">
+        <v>3</v>
       </c>
       <c r="F61" s="1">
         <v>9</v>
@@ -2926,7 +2948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="43" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -2939,8 +2961,8 @@
       <c r="D62" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E62" s="1">
-        <v>10</v>
+      <c r="E62" s="4">
+        <v>0</v>
       </c>
       <c r="F62" s="1">
         <v>10</v>
@@ -2952,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="43" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
@@ -2965,8 +2987,8 @@
       <c r="D63" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="1">
-        <v>10</v>
+      <c r="E63" s="4">
+        <v>1</v>
       </c>
       <c r="F63" s="1">
         <v>10</v>
@@ -2978,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="43" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>49</v>
       </c>
@@ -2991,8 +3013,8 @@
       <c r="D64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E64" s="1">
-        <v>10</v>
+      <c r="E64" s="4">
+        <v>2</v>
       </c>
       <c r="F64" s="1">
         <v>10</v>
@@ -3004,7 +3026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="43" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
@@ -3017,8 +3039,8 @@
       <c r="D65" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E65" s="1">
-        <v>10</v>
+      <c r="E65" s="4">
+        <v>3</v>
       </c>
       <c r="F65" s="1">
         <v>10</v>
@@ -3030,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="43" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>49</v>
       </c>
@@ -3043,11 +3065,11 @@
       <c r="D66" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
         <v>11</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>156</v>
@@ -3056,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="43" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>49</v>
       </c>
@@ -3069,8 +3091,8 @@
       <c r="D67" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="1">
-        <v>11</v>
+      <c r="E67" s="4">
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <v>11</v>
@@ -3082,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="43" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
@@ -3095,8 +3117,8 @@
       <c r="D68" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E68" s="1">
-        <v>11</v>
+      <c r="E68" s="4">
+        <v>2</v>
       </c>
       <c r="F68" s="1">
         <v>11</v>
@@ -3108,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="43" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>49</v>
       </c>
@@ -3121,8 +3143,8 @@
       <c r="D69" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="1">
-        <v>11</v>
+      <c r="E69" s="4">
+        <v>3</v>
       </c>
       <c r="F69" s="1">
         <v>11</v>
@@ -3134,7 +3156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="43" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
@@ -3147,8 +3169,8 @@
       <c r="D70" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E70" s="1">
-        <v>12</v>
+      <c r="E70" s="4">
+        <v>0</v>
       </c>
       <c r="F70" s="1">
         <v>12</v>
@@ -3160,7 +3182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="43" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -3173,8 +3195,8 @@
       <c r="D71" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="1">
-        <v>12</v>
+      <c r="E71" s="4">
+        <v>1</v>
       </c>
       <c r="F71" s="1">
         <v>12</v>
@@ -3186,7 +3208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="43" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>49</v>
       </c>
@@ -3199,8 +3221,8 @@
       <c r="D72" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="1">
-        <v>12</v>
+      <c r="E72" s="4">
+        <v>2</v>
       </c>
       <c r="F72" s="1">
         <v>12</v>
@@ -3212,7 +3234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="43" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>49</v>
       </c>
@@ -3225,8 +3247,8 @@
       <c r="D73" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="1">
-        <v>12</v>
+      <c r="E73" s="4">
+        <v>3</v>
       </c>
       <c r="F73" s="1">
         <v>12</v>
@@ -3238,7 +3260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="43" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>49</v>
       </c>
@@ -3251,8 +3273,8 @@
       <c r="D74" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E74" s="1">
-        <v>13</v>
+      <c r="E74" s="4">
+        <v>0</v>
       </c>
       <c r="F74" s="1">
         <v>13</v>
@@ -3264,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="43" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,8 +3299,8 @@
       <c r="D75" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="1">
-        <v>13</v>
+      <c r="E75" s="4">
+        <v>1</v>
       </c>
       <c r="F75" s="1">
         <v>13</v>
@@ -3290,7 +3312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="43" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>49</v>
       </c>
@@ -3303,8 +3325,8 @@
       <c r="D76" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E76" s="1">
-        <v>13</v>
+      <c r="E76" s="4">
+        <v>2</v>
       </c>
       <c r="F76" s="1">
         <v>13</v>
@@ -3316,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="43" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>49</v>
       </c>
@@ -3329,8 +3351,8 @@
       <c r="D77" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E77" s="1">
-        <v>13</v>
+      <c r="E77" s="4">
+        <v>3</v>
       </c>
       <c r="F77" s="1">
         <v>13</v>
@@ -3342,7 +3364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="43" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>49</v>
       </c>
@@ -3355,8 +3377,8 @@
       <c r="D78" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E78" s="1">
-        <v>14</v>
+      <c r="E78" s="4">
+        <v>0</v>
       </c>
       <c r="F78" s="1">
         <v>14</v>
@@ -3368,7 +3390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="43" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>49</v>
       </c>
@@ -3381,8 +3403,8 @@
       <c r="D79" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="1">
-        <v>14</v>
+      <c r="E79" s="4">
+        <v>1</v>
       </c>
       <c r="F79" s="1">
         <v>14</v>
@@ -3394,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="43" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>49</v>
       </c>
@@ -3407,8 +3429,8 @@
       <c r="D80" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E80" s="1">
-        <v>14</v>
+      <c r="E80" s="4">
+        <v>2</v>
       </c>
       <c r="F80" s="1">
         <v>14</v>
@@ -3420,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="43" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>49</v>
       </c>
@@ -3433,8 +3455,8 @@
       <c r="D81" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E81" s="1">
-        <v>14</v>
+      <c r="E81" s="4">
+        <v>3</v>
       </c>
       <c r="F81" s="1">
         <v>14</v>
@@ -3446,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="43" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>49</v>
       </c>
@@ -3459,8 +3481,8 @@
       <c r="D82" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E82" s="1">
-        <v>15</v>
+      <c r="E82" s="4">
+        <v>0</v>
       </c>
       <c r="F82" s="1">
         <v>15</v>
@@ -3472,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="43" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>49</v>
       </c>
@@ -3485,8 +3507,8 @@
       <c r="D83" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E83" s="1">
-        <v>15</v>
+      <c r="E83" s="4">
+        <v>1</v>
       </c>
       <c r="F83" s="1">
         <v>15</v>
@@ -3498,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="43" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>49</v>
       </c>
@@ -3511,8 +3533,8 @@
       <c r="D84" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="1">
-        <v>15</v>
+      <c r="E84" s="4">
+        <v>2</v>
       </c>
       <c r="F84" s="1">
         <v>15</v>
@@ -3524,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="43" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>49</v>
       </c>
@@ -3537,8 +3559,8 @@
       <c r="D85" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="1">
-        <v>15</v>
+      <c r="E85" s="4">
+        <v>3</v>
       </c>
       <c r="F85" s="1">
         <v>15</v>
@@ -3550,7 +3572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="43" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>49</v>
       </c>
@@ -3563,8 +3585,8 @@
       <c r="D86" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E86" s="1">
-        <v>16</v>
+      <c r="E86" s="4">
+        <v>0</v>
       </c>
       <c r="F86" s="1">
         <v>16</v>
@@ -3576,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="43" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>49</v>
       </c>
@@ -3589,8 +3611,8 @@
       <c r="D87" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E87" s="1">
-        <v>16</v>
+      <c r="E87" s="4">
+        <v>1</v>
       </c>
       <c r="F87" s="1">
         <v>16</v>
@@ -3602,7 +3624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="43" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>49</v>
       </c>
@@ -3615,8 +3637,8 @@
       <c r="D88" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E88" s="1">
-        <v>16</v>
+      <c r="E88" s="4">
+        <v>2</v>
       </c>
       <c r="F88" s="1">
         <v>16</v>
@@ -3628,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="43" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>49</v>
       </c>
@@ -3641,8 +3663,8 @@
       <c r="D89" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E89" s="1">
-        <v>16</v>
+      <c r="E89" s="4">
+        <v>3</v>
       </c>
       <c r="F89" s="1">
         <v>16</v>
@@ -3654,7 +3676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="43" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,11 +3689,11 @@
       <c r="D90" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="1">
-        <v>17</v>
+      <c r="E90" s="4">
+        <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>204</v>
@@ -3680,7 +3702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="43" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>49</v>
       </c>
@@ -3693,11 +3715,11 @@
       <c r="D91" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E91" s="1">
-        <v>17</v>
+      <c r="E91" s="4">
+        <v>1</v>
       </c>
       <c r="F91" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>206</v>
@@ -3706,7 +3728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="43" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>49</v>
       </c>
@@ -3719,11 +3741,11 @@
       <c r="D92" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E92" s="1">
-        <v>17</v>
+      <c r="E92" s="4">
+        <v>2</v>
       </c>
       <c r="F92" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>208</v>
@@ -3732,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="43" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>49</v>
       </c>
@@ -3745,11 +3767,11 @@
       <c r="D93" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="1">
-        <v>17</v>
+      <c r="E93" s="4">
+        <v>3</v>
       </c>
       <c r="F93" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>210</v>
@@ -3758,7 +3780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="43" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>49</v>
       </c>
@@ -3771,11 +3793,11 @@
       <c r="D94" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E94" s="1">
-        <v>18</v>
+      <c r="E94" s="4">
+        <v>0</v>
       </c>
       <c r="F94" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>212</v>
@@ -3784,7 +3806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="43" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,11 +3819,11 @@
       <c r="D95" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E95" s="1">
-        <v>18</v>
+      <c r="E95" s="4">
+        <v>1</v>
       </c>
       <c r="F95" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>214</v>
@@ -3810,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="43" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>49</v>
       </c>
@@ -3823,11 +3845,11 @@
       <c r="D96" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E96" s="1">
-        <v>18</v>
+      <c r="E96" s="4">
+        <v>2</v>
       </c>
       <c r="F96" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>216</v>
@@ -3836,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="43" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
@@ -3849,11 +3871,11 @@
       <c r="D97" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E97" s="1">
-        <v>18</v>
+      <c r="E97" s="4">
+        <v>3</v>
       </c>
       <c r="F97" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>218</v>
@@ -3862,7 +3884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="43" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>49</v>
       </c>
@@ -3875,11 +3897,11 @@
       <c r="D98" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E98" s="1">
-        <v>19</v>
+      <c r="E98" s="4">
+        <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>222</v>
@@ -3888,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="43" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>49</v>
       </c>
@@ -3901,11 +3923,11 @@
       <c r="D99" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E99" s="1">
-        <v>19</v>
+      <c r="E99" s="4">
+        <v>1</v>
       </c>
       <c r="F99" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>221</v>
@@ -3914,7 +3936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="43" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,11 +3949,11 @@
       <c r="D100" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E100" s="1">
-        <v>19</v>
+      <c r="E100" s="4">
+        <v>2</v>
       </c>
       <c r="F100" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>226</v>
@@ -3940,7 +3962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="43" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>49</v>
       </c>
@@ -3953,11 +3975,11 @@
       <c r="D101" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E101" s="1">
-        <v>19</v>
+      <c r="E101" s="4">
+        <v>3</v>
       </c>
       <c r="F101" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>228</v>
@@ -3966,7 +3988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="43" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>49</v>
       </c>
@@ -3980,10 +4002,10 @@
         <v>223</v>
       </c>
       <c r="E102" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>230</v>
@@ -3992,7 +4014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="43" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>49</v>
       </c>
@@ -4005,11 +4027,11 @@
       <c r="D103" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E103" s="1">
-        <v>19</v>
+      <c r="E103" s="4">
+        <v>1</v>
       </c>
       <c r="F103" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>225</v>
@@ -4018,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="43" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>49</v>
       </c>
@@ -4031,11 +4053,11 @@
       <c r="D104" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E104" s="1">
-        <v>19</v>
+      <c r="E104" s="4">
+        <v>2</v>
       </c>
       <c r="F104" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>232</v>
@@ -4044,7 +4066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="43" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,11 +4079,11 @@
       <c r="D105" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E105" s="1">
-        <v>19</v>
+      <c r="E105" s="4">
+        <v>3</v>
       </c>
       <c r="F105" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>234</v>
@@ -4070,7 +4092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="43" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>49</v>
       </c>
@@ -4083,11 +4105,11 @@
       <c r="D106" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E106" s="1">
-        <v>19</v>
+      <c r="E106" s="4">
+        <v>4</v>
       </c>
       <c r="F106" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>236</v>
@@ -4099,7 +4121,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/initConfigFile/preference.xlsx
+++ b/assets/initConfigFile/preference.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\丰泽\repo\even-more-passport\assets\initConfigFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="3580" windowWidth="28580" windowHeight="19900"/>
+    <workbookView xWindow="9480" yWindow="3585" windowWidth="28575" windowHeight="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -143,9 +148,6 @@
     <t>http://www.qq.com/</t>
   </si>
   <si>
-    <t>http://www.baidu.com/index.php?tn=25017023_8_pg</t>
-  </si>
-  <si>
     <t>http://www.ifeng.com/</t>
   </si>
   <si>
@@ -786,10 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://top.chinaz.com/site_hao.qq.com.hhttps://hao.qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QQ导航</t>
   </si>
   <si>
@@ -800,62 +798,70 @@
     <t>UC导航</t>
   </si>
   <si>
+    <t>58q8导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.58q8.com</t>
-  </si>
-  <si>
-    <t>58q8导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hao.qq.com</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,36 +1044,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,7 +1347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1347,22 +1357,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="43" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43" customHeight="1">
+    <row r="1" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,18 +1398,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43" customHeight="1">
+    <row r="2" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
+      <c r="D2" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1414,18 +1424,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43" customHeight="1">
+    <row r="3" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1440,12 +1450,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43" customHeight="1">
+    <row r="4" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1466,18 +1476,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43" customHeight="1">
+    <row r="5" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1492,18 +1502,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43" customHeight="1">
+    <row r="6" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1518,18 +1528,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43" customHeight="1">
+    <row r="7" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1544,18 +1554,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43" customHeight="1">
+    <row r="8" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1570,18 +1580,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43" customHeight="1">
+    <row r="9" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -1596,18 +1606,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43" customHeight="1">
+    <row r="10" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -1622,18 +1632,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43" customHeight="1">
+    <row r="11" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -1648,18 +1658,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43" customHeight="1">
+    <row r="12" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1674,18 +1684,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="43" customHeight="1">
+    <row r="13" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1700,18 +1710,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43" customHeight="1">
+    <row r="14" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1726,18 +1736,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="43" customHeight="1">
+    <row r="15" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -1752,18 +1762,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43" customHeight="1">
+    <row r="16" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
@@ -1778,18 +1788,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="43" customHeight="1">
+    <row r="17" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1804,18 +1814,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="43" customHeight="1">
+    <row r="18" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1830,18 +1840,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="43" customHeight="1">
+    <row r="19" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1856,18 +1866,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43" customHeight="1">
+    <row r="20" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -1882,18 +1892,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43" customHeight="1">
+    <row r="21" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -1908,70 +1918,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="43" customHeight="1">
+    <row r="22" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="H23" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1980,102 +1990,102 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="43" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="43" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="43" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -2084,50 +2094,50 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="H29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="43" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2136,24 +2146,24 @@
         <v>2</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="H30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -2162,24 +2172,24 @@
         <v>2</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="H31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="43" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -2188,24 +2198,24 @@
         <v>2</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="H32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="43" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E33" s="4">
         <v>3</v>
@@ -2214,76 +2224,76 @@
         <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="43" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="43" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="H35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="43" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -2292,50 +2302,50 @@
         <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="43" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="4">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="H37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="43" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -2344,24 +2354,24 @@
         <v>4</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="H38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="43" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2370,24 +2380,24 @@
         <v>4</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="H39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="43" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -2396,24 +2406,24 @@
         <v>4</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="H40" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="43" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E41" s="4">
         <v>3</v>
@@ -2422,24 +2432,24 @@
         <v>4</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="H41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="43" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -2448,24 +2458,24 @@
         <v>5</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="H42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="43" customHeight="1">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -2474,24 +2484,24 @@
         <v>5</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="H43" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="43" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
@@ -2500,24 +2510,24 @@
         <v>5</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H44" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="43" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E45" s="4">
         <v>3</v>
@@ -2526,24 +2536,24 @@
         <v>5</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="H45" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="43" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -2552,24 +2562,24 @@
         <v>6</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="H46" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="43" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
@@ -2578,24 +2588,24 @@
         <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="H47" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="43" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -2604,24 +2614,24 @@
         <v>6</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="H48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="43" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E49" s="4">
         <v>3</v>
@@ -2630,24 +2640,24 @@
         <v>6</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="H49" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="43" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
@@ -2656,24 +2666,24 @@
         <v>7</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="H50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="43" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -2682,24 +2692,24 @@
         <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="H51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="43" customHeight="1">
-      <c r="A52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -2708,24 +2718,24 @@
         <v>7</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H52" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="43" customHeight="1">
-      <c r="A53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E53" s="4">
         <v>3</v>
@@ -2734,24 +2744,24 @@
         <v>7</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="H53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="43" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E54" s="4">
         <v>0</v>
@@ -2760,24 +2770,24 @@
         <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="H54" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="43" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
@@ -2786,24 +2796,24 @@
         <v>8</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="H55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="43" customHeight="1">
-      <c r="A56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
@@ -2812,24 +2822,24 @@
         <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="H56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="43" customHeight="1">
-      <c r="A57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E57" s="4">
         <v>3</v>
@@ -2838,24 +2848,24 @@
         <v>8</v>
       </c>
       <c r="G57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="H57" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="43" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
@@ -2864,24 +2874,24 @@
         <v>9</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H58" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="43" customHeight="1">
+    <row r="59" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
@@ -2890,24 +2900,24 @@
         <v>9</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="H59" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="43" customHeight="1">
-      <c r="A60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E60" s="4">
         <v>2</v>
@@ -2916,24 +2926,24 @@
         <v>9</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H60" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="H60" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="43" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="E61" s="4">
         <v>3</v>
@@ -2942,24 +2952,24 @@
         <v>9</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="H61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="43" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -2968,24 +2978,24 @@
         <v>10</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H62" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="43" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
@@ -2994,24 +3004,24 @@
         <v>10</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H63" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="43" customHeight="1">
+    <row r="64" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E64" s="4">
         <v>2</v>
@@ -3020,24 +3030,24 @@
         <v>10</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="H64" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="43" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E65" s="4">
         <v>3</v>
@@ -3046,24 +3056,24 @@
         <v>10</v>
       </c>
       <c r="G65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="H65" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="43" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -3072,24 +3082,24 @@
         <v>11</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="H66" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="43" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E67" s="4">
         <v>1</v>
@@ -3098,24 +3108,24 @@
         <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="H67" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="43" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E68" s="4">
         <v>2</v>
@@ -3124,24 +3134,24 @@
         <v>11</v>
       </c>
       <c r="G68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="H68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="43" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E69" s="4">
         <v>3</v>
@@ -3150,24 +3160,24 @@
         <v>11</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="H69" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="43" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
@@ -3176,24 +3186,24 @@
         <v>12</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H70" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="43" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -3202,24 +3212,24 @@
         <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="H71" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="43" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E72" s="4">
         <v>2</v>
@@ -3228,24 +3238,24 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="H72" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="43" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="E73" s="4">
         <v>3</v>
@@ -3254,24 +3264,24 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H73" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43" customHeight="1">
+    <row r="74" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
@@ -3280,24 +3290,24 @@
         <v>13</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H74" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="43" customHeight="1">
+    <row r="75" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -3306,24 +3316,24 @@
         <v>13</v>
       </c>
       <c r="G75" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="H75" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="43" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E76" s="4">
         <v>2</v>
@@ -3332,24 +3342,24 @@
         <v>13</v>
       </c>
       <c r="G76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="H76" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="43" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E77" s="4">
         <v>3</v>
@@ -3358,24 +3368,24 @@
         <v>13</v>
       </c>
       <c r="G77" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H77" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="43" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="E78" s="4">
         <v>0</v>
@@ -3384,24 +3394,24 @@
         <v>14</v>
       </c>
       <c r="G78" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="H78" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="43" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="E79" s="4">
         <v>1</v>
@@ -3410,24 +3420,24 @@
         <v>14</v>
       </c>
       <c r="G79" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="H79" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="43" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E80" s="4">
         <v>2</v>
@@ -3436,24 +3446,24 @@
         <v>14</v>
       </c>
       <c r="G80" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="H80" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="43" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="E81" s="4">
         <v>3</v>
@@ -3462,24 +3472,24 @@
         <v>14</v>
       </c>
       <c r="G81" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="H81" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="43" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="E82" s="4">
         <v>0</v>
@@ -3488,24 +3498,24 @@
         <v>15</v>
       </c>
       <c r="G82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="H82" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="43" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
@@ -3514,24 +3524,24 @@
         <v>15</v>
       </c>
       <c r="G83" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H83" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="43" customHeight="1">
-      <c r="A84" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E84" s="4">
         <v>2</v>
@@ -3540,24 +3550,24 @@
         <v>15</v>
       </c>
       <c r="G84" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="H84" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="43" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="E85" s="4">
         <v>3</v>
@@ -3566,24 +3576,24 @@
         <v>15</v>
       </c>
       <c r="G85" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="H85" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="43" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -3592,24 +3602,24 @@
         <v>16</v>
       </c>
       <c r="G86" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="H86" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="43" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="E87" s="4">
         <v>1</v>
@@ -3618,24 +3628,24 @@
         <v>16</v>
       </c>
       <c r="G87" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="H87" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="43" customHeight="1">
-      <c r="A88" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="E88" s="4">
         <v>2</v>
@@ -3644,24 +3654,24 @@
         <v>16</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="H88" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="43" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="E89" s="4">
         <v>3</v>
@@ -3670,76 +3680,76 @@
         <v>16</v>
       </c>
       <c r="G89" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H89" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="43" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E90" s="4">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H90" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="43" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="H91" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="43" customHeight="1">
-      <c r="A92" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="E92" s="4">
         <v>2</v>
@@ -3748,102 +3758,102 @@
         <v>0</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H92" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="43" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="4">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="4">
-        <v>3</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H93" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="43" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E94" s="4">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="H94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H94" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="43" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E95" s="4">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="H95" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="43" customHeight="1">
-      <c r="A96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="E96" s="4">
         <v>2</v>
@@ -3852,102 +3862,102 @@
         <v>1</v>
       </c>
       <c r="G96" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H96" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="43" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="E97" s="4">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E97" s="4">
-        <v>3</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="C98" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H97" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="43" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E98" s="4">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H98" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="43" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E99" s="4">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="H99" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="43" customHeight="1">
+    <row r="100" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E100" s="4">
         <v>2</v>
@@ -3956,102 +3966,102 @@
         <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H100" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="43" customHeight="1">
+    <row r="101" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E101" s="4">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E101" s="4">
-        <v>3</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H101" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="43" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H102" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="43" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H103" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="43" customHeight="1">
-      <c r="A104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E104" s="4">
         <v>2</v>
@@ -4060,50 +4070,50 @@
         <v>1</v>
       </c>
       <c r="G104" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H104" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="43" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E105" s="4">
-        <v>3</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="H105" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="43" customHeight="1">
+    <row r="106" spans="1:8" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>235</v>
+        <v>242</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="E106" s="4">
         <v>4</v>
@@ -4112,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H106" s="1">
         <v>3</v>
@@ -4120,6 +4130,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D106" r:id="rId1"/>
+    <hyperlink ref="D105" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
